--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_357__Reeval_Taguchi_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_357__Reeval_Taguchi_Modell_1.2.xlsx
@@ -5417,16 +5417,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>-2.942541599273682</c:v>
+                  <c:v>-2.942547559738159</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.709639310836792</c:v>
+                  <c:v>3.709636211395264</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>58.22049331665039</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.10145568847656</c:v>
+                  <c:v>23.1014518737793</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>87.00572204589844</c:v>
@@ -5444,7 +5444,7 @@
                   <c:v>88.33123016357422</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.794782042503357</c:v>
+                  <c:v>-1.794779062271118</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>92.41819763183594</c:v>
@@ -5453,16 +5453,16 @@
                   <c:v>-1.673505067825317</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.147216320037842</c:v>
+                  <c:v>-2.147210359573364</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>65.44440460205078</c:v>
+                  <c:v>65.44441223144531</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>94.71189117431641</c:v>
+                  <c:v>94.71188354492188</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>82.59465026855469</c:v>
+                  <c:v>82.59465789794922</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>63.0936164855957</c:v>
@@ -5471,7 +5471,7 @@
                   <c:v>93.72400665283203</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-2.779218912124634</c:v>
+                  <c:v>-2.779216051101685</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>94.47697448730469</c:v>
@@ -5486,10 +5486,10 @@
                   <c:v>-1.686633706092834</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-2.135637044906616</c:v>
+                  <c:v>-2.135639905929565</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-3.207019805908203</c:v>
+                  <c:v>-3.207022666931152</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-1.641604065895081</c:v>
@@ -5501,7 +5501,7 @@
                   <c:v>-2.753751277923584</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>85.32554626464844</c:v>
+                  <c:v>85.32553100585938</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>-1.845806002616882</c:v>
@@ -5519,7 +5519,7 @@
                   <c:v>87.472900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.6516647338867188</c:v>
+                  <c:v>-0.65166175365448</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>94.40011596679688</c:v>
@@ -5534,7 +5534,7 @@
                   <c:v>78.56253814697266</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>22.38994026184082</c:v>
+                  <c:v>22.38994216918945</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>93.82025146484375</c:v>
@@ -5552,13 +5552,13 @@
                   <c:v>-1.416393995285034</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-2.411906480789185</c:v>
+                  <c:v>-2.411909341812134</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>93.5628662109375</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-3.981929063796997</c:v>
+                  <c:v>-3.981931924819946</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>-2.234041213989258</c:v>
@@ -5570,7 +5570,7 @@
                   <c:v>91.24644470214844</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-2.689383506774902</c:v>
+                  <c:v>-2.689380645751953</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>94.24853515625</c:v>
@@ -5588,7 +5588,7 @@
                   <c:v>94.68775177001953</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>93.98145294189453</c:v>
+                  <c:v>93.98146057128906</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>-1.325598239898682</c:v>
@@ -5639,22 +5639,22 @@
                   <c:v>-1.437811613082886</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>93.62384033203125</c:v>
+                  <c:v>93.62382507324219</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>95.89467620849609</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>77.1890869140625</c:v>
+                  <c:v>77.18910217285156</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>92.08823394775391</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-2.253818035125732</c:v>
+                  <c:v>-2.253821134567261</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.783157348632812</c:v>
+                  <c:v>4.783160209655762</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>93.93173980712891</c:v>
@@ -5666,7 +5666,7 @@
                   <c:v>-2.57745885848999</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-2.201103448867798</c:v>
+                  <c:v>-2.20109748840332</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>94.01718902587891</c:v>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-2.942541599273682</v>
+        <v>-2.942547559738159</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3.709639310836792</v>
+        <v>3.709636211395264</v>
       </c>
       <c r="G3">
         <v>99</v>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>23.10145568847656</v>
+        <v>23.1014518737793</v>
       </c>
       <c r="G5">
         <v>99</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-1.794782042503357</v>
+        <v>-1.794779062271118</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-2.147216320037842</v>
+        <v>-2.147210359573364</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6711,7 +6711,7 @@
         <v>77.4808</v>
       </c>
       <c r="F15">
-        <v>65.44440460205078</v>
+        <v>65.44441223144531</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6731,7 +6731,7 @@
         <v>92.98990000000001</v>
       </c>
       <c r="F16">
-        <v>94.71189117431641</v>
+        <v>94.71188354492188</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6751,7 +6751,7 @@
         <v>80.1264</v>
       </c>
       <c r="F17">
-        <v>82.59465026855469</v>
+        <v>82.59465789794922</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-2.779218912124634</v>
+        <v>-2.779216051101685</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>-2.135637044906616</v>
+        <v>-2.135639905929565</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>-3.207019805908203</v>
+        <v>-3.207022666931152</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7011,7 +7011,7 @@
         <v>77.453</v>
       </c>
       <c r="F30">
-        <v>85.32554626464844</v>
+        <v>85.32553100585938</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>-0.6516647338867188</v>
+        <v>-0.65166175365448</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>69.4635</v>
       </c>
       <c r="F41">
-        <v>22.38994026184082</v>
+        <v>22.38994216918945</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>-2.411906480789185</v>
+        <v>-2.411909341812134</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>-3.981929063796997</v>
+        <v>-3.981931924819946</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>-2.689383506774902</v>
+        <v>-2.689380645751953</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>94.0821</v>
       </c>
       <c r="F59">
-        <v>93.98145294189453</v>
+        <v>93.98146057128906</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>94.8021</v>
       </c>
       <c r="F76">
-        <v>93.62384033203125</v>
+        <v>93.62382507324219</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>79.8989</v>
       </c>
       <c r="F78">
-        <v>77.1890869140625</v>
+        <v>77.18910217285156</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>-2.253818035125732</v>
+        <v>-2.253821134567261</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>87.7663</v>
       </c>
       <c r="F81">
-        <v>4.783157348632812</v>
+        <v>4.783160209655762</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>-2.201103448867798</v>
+        <v>-2.20109748840332</v>
       </c>
     </row>
     <row r="86" spans="1:6">
